--- a/BASIC/conditions.xlsx
+++ b/BASIC/conditions.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Dropbox\PostDoc Northumbria\Programming\MRes Posner\BASIC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>probeX</t>
   </si>
@@ -38,14 +43,11 @@
   <si>
     <t>description</t>
   </si>
-  <si>
-    <t>conflicting</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -103,6 +105,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,12 +441,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>300</v>
       </c>
@@ -458,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>-300</v>
       </c>
@@ -472,13 +482,13 @@
         <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>300</v>
       </c>
@@ -489,10 +499,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>-300</v>
       </c>
@@ -503,10 +513,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>300</v>
       </c>
@@ -514,13 +524,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>-300</v>
       </c>
@@ -528,13 +538,13 @@
         <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>300</v>
       </c>
@@ -542,13 +552,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>-300</v>
       </c>
@@ -556,13 +566,13 @@
         <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>300</v>
       </c>
@@ -570,13 +580,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>-300</v>
       </c>
@@ -584,7 +594,7 @@
         <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
